--- a/HOAc work/Ni(110)/Acetic Acid Area_output 5_16_18.xlsx
+++ b/HOAc work/Ni(110)/Acetic Acid Area_output 5_16_18.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEC2D5E-8F6D-4445-B276-7D6AD28A6AA5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DC887-A945-4862-8014-B02A3E4CBB65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$22:$P$38</definedName>
+  </definedNames>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>H2</t>
   </si>
@@ -84,6 +87,18 @@
   <si>
     <t>1.04 e-8 15s</t>
   </si>
+  <si>
+    <t>HOAc smallest to largest</t>
+  </si>
+  <si>
+    <t>CO corr</t>
+  </si>
+  <si>
+    <t>ordered by langmuir</t>
+  </si>
+  <si>
+    <t>CO2 smallest to largest</t>
+  </si>
 </sst>
 </file>
 
@@ -106,15 +121,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,13 +158,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -189,6 +233,5494 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HOAc small to large</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11301261.36477978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7559296.9380351491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11520319.95079422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14224533.155842571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14824370.35927413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15542286.01875807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17303903.134900901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14597034.154766429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16787424.834395532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15471984.689092111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15570791.38196047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16285203.05489251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16368221.286261279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16556193.383649269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16213893.115659161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-73A4-4DD5-B69E-ED66D9286026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO corr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6932903.8475196017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4322069.0458857054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6819427.8665669663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9177764.8321971819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9356076.2782120463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10422779.796747554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11142338.399305219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10820401.835562717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11708275.308671076</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10658897.834186198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11346352.185566513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11956488.186511599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11882760.899278512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11482444.267947793</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11813398.796008855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-73A4-4DD5-B69E-ED66D9286026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492557632"/>
+        <c:axId val="489792096"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>H2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$3:$I$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$3:$K$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>103458599.3286628</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>99432864.009671569</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>98869495.510615051</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120815990.679148</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>117327332.74382479</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>127940382.8097512</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>115699576.69012859</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>128348734.352567</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>131997818.9242533</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>124884999.57886539</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>122040816.64414831</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>123839430.9698689</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>130525130.2219138</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>130262217.033169</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>122436829.073636</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-73A4-4DD5-B69E-ED66D9286026}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Water</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$3:$I$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$3:$L$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>565537.54982437752</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>517946.88487675373</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>654221.00240573718</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>591018.47094773385</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>572378.11425006855</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>446974.53440215928</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>454232.97113804898</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>262250.73529387353</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>400388.26114624058</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>260454.69254665679</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>245106.2026059856</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>392865.6101648219</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>300211.20812727459</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>312411.66914223973</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>404390.90862093109</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-73A4-4DD5-B69E-ED66D9286026}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOAc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55055.759844068518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67958.385117785278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87225.607847375606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140340.54032033519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181001.7859671152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232070.0411140699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>414761.87087287352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>461113.96727538551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524824.01456225361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>650669.06810109154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>840643.64793153678</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1448068.281180765</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1696378.998010783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1892970.0457810829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4105228.491097312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73A4-4DD5-B69E-ED66D9286026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489844368"/>
+        <c:axId val="489857328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492557632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489792096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489792096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492557632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489857328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489844368"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489844368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="489857328"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ordered by langmuir</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4500000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7559296.9380351491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11520319.95079422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11301261.36477978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14224533.155842571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14824370.35927413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17303903.134900901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15542286.01875807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16787424.834395532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14597034.154766429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16556193.383649269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15570791.38196047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15471984.689092111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16285203.05489251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16368221.286261279</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16213893.115659161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2603-488E-831D-631D312D14D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO corr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4500000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4322069.0458857054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6819427.8665669663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6932903.8475196017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9177764.8321971819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9356076.2782120463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11142338.399305219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10422779.796747554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11708275.308671076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10820401.835562717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11482444.267947793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11346352.185566513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10658897.834186198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11956488.186511599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11882760.899278512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11813398.796008855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2603-488E-831D-631D312D14D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492568864"/>
+        <c:axId val="489786048"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>H2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$3:$S$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2499999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.7499999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.2500000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.4000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.350000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.4500000000000015E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.114</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.12600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.13650000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13650000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15600000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$3:$T$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>99432864.009671569</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>98869495.510615051</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>103458599.3286628</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120815990.679148</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>117327332.74382479</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>115699576.69012859</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>127940382.8097512</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>131997818.9242533</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>128348734.352567</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>130262217.033169</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>122040816.64414831</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>124884999.57886539</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>123839430.9698689</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>130525130.2219138</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>122436829.073636</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2603-488E-831D-631D312D14D6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$U$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Water</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$3:$S$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2499999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.7000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.7499999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.2500000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.4000000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.350000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.4500000000000015E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.114</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.12600000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.13650000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.13650000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.14399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.15600000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$U$3:$U$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>517946.88487675373</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>654221.00240573718</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>565537.54982437752</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>591018.47094773385</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>572378.11425006855</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>454232.97113804898</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>446974.53440215928</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>400388.26114624058</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>262250.73529387353</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>312411.66914223973</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>245106.2026059856</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>260454.69254665679</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>392865.6101648219</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>300211.20812727459</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>404390.90862093109</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2603-488E-831D-631D312D14D6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOAc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4500000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67958.385117785278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87225.607847375606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55055.759844068518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140340.54032033519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181001.7859671152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414761.87087287352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232070.0411140699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524824.01456225361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>461113.96727538551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1892970.0457810829</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>840643.64793153678</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650669.06810109154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1448068.281180765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1696378.998010783</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4105228.491097312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2603-488E-831D-631D312D14D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489846096"/>
+        <c:axId val="489856464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492568864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489786048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489786048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492568864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenMillions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489856464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489846096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489846096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="489856464"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ordered by CO2 area small to large</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$23:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7559296.9380351491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11301261.36477978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11520319.95079422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14224533.155842571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14597034.154766429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14824370.35927413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15471984.689092111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15542286.01875807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15570791.38196047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16213893.115659161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16285203.05489251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16368221.286261279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16556193.383649269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16787424.834395532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17303903.134900901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9B82-4180-B01F-D32B4BDA539B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO corr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$23:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4322069.0458857054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6932903.8475196017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6819427.8665669663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9177764.8321971819</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10820401.835562717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9356076.2782120463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10658897.834186198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10422779.796747554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11346352.185566513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11813398.796008855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11956488.186511599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11882760.899278512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11482444.267947793</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11708275.308671076</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11142338.399305219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9B82-4180-B01F-D32B4BDA539B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1705092160"/>
+        <c:axId val="489843504"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>H2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$23:$I$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$23:$K$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>99432864.009671569</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>103458599.3286628</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>98869495.510615051</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>120815990.679148</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>128348734.352567</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>117327332.74382479</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>124884999.57886539</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>127940382.8097512</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>122040816.64414831</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>122436829.073636</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>123839430.9698689</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130525130.2219138</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>130262217.033169</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>131997818.9242533</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>115699576.69012859</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9B82-4180-B01F-D32B4BDA539B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Water</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$23:$I$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$L$23:$L$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>517946.88487675373</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>565537.54982437752</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>654221.00240573718</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>591018.47094773385</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>262250.73529387353</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>572378.11425006855</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>260454.69254665679</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>446974.53440215928</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>245106.2026059856</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>404390.90862093109</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>392865.6101648219</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>300211.20812727459</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>312411.66914223973</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>400388.26114624058</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>454232.97113804898</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9B82-4180-B01F-D32B4BDA539B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HOAc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$23:$M$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67958.385117785278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55055.759844068518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87225.607847375606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140340.54032033519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>461113.96727538551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181001.7859671152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650669.06810109154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>232070.0411140699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>840643.64793153678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4105228.491097312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1448068.281180765</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1696378.998010783</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1892970.0457810829</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>524824.01456225361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>414761.87087287352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9B82-4180-B01F-D32B4BDA539B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="489869424"/>
+        <c:axId val="489872016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1705092160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489843504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489843504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705092160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489872016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="489869424"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="489869424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="489872016"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>656704</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1080653</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510A5E33-96F4-49AA-8882-726E01D36AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552796</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145472</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>187037</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FA96F-D687-405F-B503-C184DBDB493D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1404850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>448887</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484C6178-EC8B-4140-9C1F-7EB18DBA68A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,359 +6044,1764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <f>F3-0.1*E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>O3-0.1*N3</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>X3-0.1*W3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>99432864.009671569</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>517946.88487675373</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>67958.385117785278</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>7559296.9380351491</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>5077998.7396892207</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G17" si="0">F4-0.1*E4</f>
+        <v>4322069.0458857054</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>103458599.3286628</v>
+      </c>
+      <c r="L4">
+        <v>565537.54982437752</v>
+      </c>
+      <c r="M4">
+        <v>55055.759844068518</v>
+      </c>
+      <c r="N4">
+        <v>11301261.36477978</v>
+      </c>
+      <c r="O4">
+        <v>8063029.9839975797</v>
+      </c>
+      <c r="P4">
+        <f>O4-0.1*N4</f>
+        <v>6932903.8475196017</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="4">
+        <f>0.000000001*15/0.000001</f>
+        <v>1.5000000000000003E-2</v>
+      </c>
+      <c r="T4">
+        <v>99432864.009671569</v>
+      </c>
+      <c r="U4">
+        <v>517946.88487675373</v>
+      </c>
+      <c r="V4">
+        <v>67958.385117785278</v>
+      </c>
+      <c r="W4">
+        <v>7559296.9380351491</v>
+      </c>
+      <c r="X4">
+        <v>5077998.7396892207</v>
+      </c>
+      <c r="Y4">
+        <f>X4-0.1*W4</f>
+        <v>4322069.0458857054</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>123839430.9698689</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>392865.6101648219</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1448068.281180765</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>16285203.05489251</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>13585008.49200085</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11956488.186511599</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>99432864.009671569</v>
+      </c>
+      <c r="L5">
+        <v>517946.88487675373</v>
+      </c>
+      <c r="M5">
+        <v>67958.385117785278</v>
+      </c>
+      <c r="N5">
+        <v>7559296.9380351491</v>
+      </c>
+      <c r="O5">
+        <v>5077998.7396892207</v>
+      </c>
+      <c r="P5">
+        <f>O5-0.1*N5</f>
+        <v>4322069.0458857054</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="4">
+        <f>0.0000000015*15/0.000001</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="T5">
+        <v>98869495.510615051</v>
+      </c>
+      <c r="U5">
+        <v>654221.00240573718</v>
+      </c>
+      <c r="V5">
+        <v>87225.607847375606</v>
+      </c>
+      <c r="W5">
+        <v>11520319.95079422</v>
+      </c>
+      <c r="X5">
+        <v>7971459.8616463887</v>
+      </c>
+      <c r="Y5">
+        <f>X5-0.1*W5</f>
+        <v>6819427.8665669663</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>122436829.073636</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>404390.90862093109</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4105228.491097312</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>16213893.115659161</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>13434788.10757477</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>11813398.796008855</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>98869495.510615051</v>
+      </c>
+      <c r="L6">
+        <v>654221.00240573718</v>
+      </c>
+      <c r="M6">
+        <v>87225.607847375606</v>
+      </c>
+      <c r="N6">
+        <v>11520319.95079422</v>
+      </c>
+      <c r="O6">
+        <v>7971459.8616463887</v>
+      </c>
+      <c r="P6">
+        <f>O6-0.1*N6</f>
+        <v>6819427.8665669663</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="4">
+        <f>0.0000000018*15/0.000001</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="T6">
+        <v>103458599.3286628</v>
+      </c>
+      <c r="U6">
+        <v>565537.54982437752</v>
+      </c>
+      <c r="V6">
+        <v>55055.759844068518</v>
+      </c>
+      <c r="W6">
+        <v>11301261.36477978</v>
+      </c>
+      <c r="X6">
+        <v>8063029.9839975797</v>
+      </c>
+      <c r="Y6">
+        <f>X6-0.1*W6</f>
+        <v>6932903.8475196017</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>98869495.510615051</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>654221.00240573718</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>87225.607847375606</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>11520319.95079422</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>7971459.8616463887</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6819427.8665669663</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>120815990.679148</v>
+      </c>
+      <c r="L7">
+        <v>591018.47094773385</v>
+      </c>
+      <c r="M7">
+        <v>140340.54032033519</v>
+      </c>
+      <c r="N7">
+        <v>14224533.155842571</v>
+      </c>
+      <c r="O7">
+        <v>10600218.147781439</v>
+      </c>
+      <c r="P7">
+        <f>O7-0.1*N7</f>
+        <v>9177764.8321971819</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="4">
+        <f>0.0000000025*15/0.000001</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>120815990.679148</v>
+      </c>
+      <c r="U7">
+        <v>591018.47094773385</v>
+      </c>
+      <c r="V7">
+        <v>140340.54032033519</v>
+      </c>
+      <c r="W7">
+        <v>14224533.155842571</v>
+      </c>
+      <c r="X7">
+        <v>10600218.147781439</v>
+      </c>
+      <c r="Y7">
+        <f>X7-0.1*W7</f>
+        <v>9177764.8321971819</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>103458599.3286628</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>565537.54982437752</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>55055.759844068518</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>11301261.36477978</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>8063029.9839975797</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6932903.8475196017</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>117327332.74382479</v>
+      </c>
+      <c r="L8">
+        <v>572378.11425006855</v>
+      </c>
+      <c r="M8">
+        <v>181001.7859671152</v>
+      </c>
+      <c r="N8">
+        <v>14824370.35927413</v>
+      </c>
+      <c r="O8">
+        <v>10838513.314139459</v>
+      </c>
+      <c r="P8">
+        <f>O8-0.1*N8</f>
+        <v>9356076.2782120463</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="4">
+        <f>0.0000000032*15/0.000001</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="T8">
+        <v>117327332.74382479</v>
+      </c>
+      <c r="U8">
+        <v>572378.11425006855</v>
+      </c>
+      <c r="V8">
+        <v>181001.7859671152</v>
+      </c>
+      <c r="W8">
+        <v>14824370.35927413</v>
+      </c>
+      <c r="X8">
+        <v>10838513.314139459</v>
+      </c>
+      <c r="Y8">
+        <f>X8-0.1*W8</f>
+        <v>9356076.2782120463</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>120815990.679148</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>591018.47094773385</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>140340.54032033519</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>14224533.155842571</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>10600218.147781439</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>9177764.8321971819</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>127940382.8097512</v>
+      </c>
+      <c r="L9">
+        <v>446974.53440215928</v>
+      </c>
+      <c r="M9">
+        <v>232070.0411140699</v>
+      </c>
+      <c r="N9">
+        <v>15542286.01875807</v>
+      </c>
+      <c r="O9">
+        <v>11977008.39862336</v>
+      </c>
+      <c r="P9">
+        <f>O9-0.1*N9</f>
+        <v>10422779.796747554</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="4">
+        <f>0.0000000035*15/0.000001</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+      <c r="T9">
+        <v>115699576.69012859</v>
+      </c>
+      <c r="U9">
+        <v>454232.97113804898</v>
+      </c>
+      <c r="V9">
+        <v>414761.87087287352</v>
+      </c>
+      <c r="W9">
+        <v>17303903.134900901</v>
+      </c>
+      <c r="X9">
+        <v>12872728.71279531</v>
+      </c>
+      <c r="Y9">
+        <f>X9-0.1*W9</f>
+        <v>11142338.399305219</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>117327332.74382479</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>572378.11425006855</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>181001.7859671152</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>14824370.35927413</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>10838513.314139459</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9356076.2782120463</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>115699576.69012859</v>
+      </c>
+      <c r="L10">
+        <v>454232.97113804898</v>
+      </c>
+      <c r="M10">
+        <v>414761.87087287352</v>
+      </c>
+      <c r="N10">
+        <v>17303903.134900901</v>
+      </c>
+      <c r="O10">
+        <v>12872728.71279531</v>
+      </c>
+      <c r="P10">
+        <f>O10-0.1*N10</f>
+        <v>11142338.399305219</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="4">
+        <f>0.0000000036*15/0.000001</f>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="T10">
+        <v>127940382.8097512</v>
+      </c>
+      <c r="U10">
+        <v>446974.53440215928</v>
+      </c>
+      <c r="V10">
+        <v>232070.0411140699</v>
+      </c>
+      <c r="W10">
+        <v>15542286.01875807</v>
+      </c>
+      <c r="X10">
+        <v>11977008.39862336</v>
+      </c>
+      <c r="Y10">
+        <f>X10-0.1*W10</f>
+        <v>10422779.796747554</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>115699576.69012859</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>454232.97113804898</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>414761.87087287352</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>17303903.134900901</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>12872728.71279531</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>11142338.399305219</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>128348734.352567</v>
+      </c>
+      <c r="L11">
+        <v>262250.73529387353</v>
+      </c>
+      <c r="M11">
+        <v>461113.96727538551</v>
+      </c>
+      <c r="N11">
+        <v>14597034.154766429</v>
+      </c>
+      <c r="O11">
+        <v>12280105.25103936</v>
+      </c>
+      <c r="P11">
+        <f>O11-0.1*N11</f>
+        <v>10820401.835562717</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="4">
+        <f>0.0000000049*15/0.000001</f>
+        <v>7.350000000000001E-2</v>
+      </c>
+      <c r="T11">
+        <v>131997818.9242533</v>
+      </c>
+      <c r="U11">
+        <v>400388.26114624058</v>
+      </c>
+      <c r="V11">
+        <v>524824.01456225361</v>
+      </c>
+      <c r="W11">
+        <v>16787424.834395532</v>
+      </c>
+      <c r="X11">
+        <v>13387017.792110629</v>
+      </c>
+      <c r="Y11">
+        <f>X11-0.1*W11</f>
+        <v>11708275.308671076</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>127940382.8097512</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>446974.53440215928</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>232070.0411140699</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>15542286.01875807</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>11977008.39862336</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>10422779.796747554</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>131997818.9242533</v>
+      </c>
+      <c r="L12">
+        <v>400388.26114624058</v>
+      </c>
+      <c r="M12">
+        <v>524824.01456225361</v>
+      </c>
+      <c r="N12">
+        <v>16787424.834395532</v>
+      </c>
+      <c r="O12">
+        <v>13387017.792110629</v>
+      </c>
+      <c r="P12">
+        <f>O12-0.1*N12</f>
+        <v>11708275.308671076</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="4">
+        <f>0.0000000063*15/0.000001</f>
+        <v>9.4500000000000015E-2</v>
+      </c>
+      <c r="T12">
+        <v>128348734.352567</v>
+      </c>
+      <c r="U12">
+        <v>262250.73529387353</v>
+      </c>
+      <c r="V12">
+        <v>461113.96727538551</v>
+      </c>
+      <c r="W12">
+        <v>14597034.154766429</v>
+      </c>
+      <c r="X12">
+        <v>12280105.25103936</v>
+      </c>
+      <c r="Y12">
+        <f>X12-0.1*W12</f>
+        <v>10820401.835562717</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>131997818.9242533</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>400388.26114624058</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>524824.01456225361</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>16787424.834395532</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>13387017.792110629</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>11708275.308671076</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>124884999.57886539</v>
+      </c>
+      <c r="L13">
+        <v>260454.69254665679</v>
+      </c>
+      <c r="M13">
+        <v>650669.06810109154</v>
+      </c>
+      <c r="N13">
+        <v>15471984.689092111</v>
+      </c>
+      <c r="O13">
+        <v>12206096.30309541</v>
+      </c>
+      <c r="P13">
+        <f>O13-0.1*N13</f>
+        <v>10658897.834186198</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="4">
+        <f>0.0000000076*15/0.000001</f>
+        <v>0.114</v>
+      </c>
+      <c r="T13">
+        <v>130262217.033169</v>
+      </c>
+      <c r="U13">
+        <v>312411.66914223973</v>
+      </c>
+      <c r="V13">
+        <v>1892970.0457810829</v>
+      </c>
+      <c r="W13">
+        <v>16556193.383649269</v>
+      </c>
+      <c r="X13">
+        <v>13138063.60631272</v>
+      </c>
+      <c r="Y13">
+        <f>X13-0.1*W13</f>
+        <v>11482444.267947793</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>128348734.352567</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>262250.73529387353</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>461113.96727538551</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>14597034.154766429</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>12280105.25103936</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>10820401.835562717</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>122040816.64414831</v>
+      </c>
+      <c r="L14">
+        <v>245106.2026059856</v>
+      </c>
+      <c r="M14">
+        <v>840643.64793153678</v>
+      </c>
+      <c r="N14">
+        <v>15570791.38196047</v>
+      </c>
+      <c r="O14">
+        <v>12903431.32376256</v>
+      </c>
+      <c r="P14">
+        <f>O14-0.1*N14</f>
+        <v>11346352.185566513</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="4">
+        <f>0.0000000084*15/0.000001</f>
+        <v>0.12600000000000003</v>
+      </c>
+      <c r="T14">
+        <v>122040816.64414831</v>
+      </c>
+      <c r="U14">
+        <v>245106.2026059856</v>
+      </c>
+      <c r="V14">
+        <v>840643.64793153678</v>
+      </c>
+      <c r="W14">
+        <v>15570791.38196047</v>
+      </c>
+      <c r="X14">
+        <v>12903431.32376256</v>
+      </c>
+      <c r="Y14">
+        <f>X14-0.1*W14</f>
+        <v>11346352.185566513</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>130262217.033169</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>312411.66914223973</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>1892970.0457810829</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>16556193.383649269</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>13138063.60631272</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11482444.267947793</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>123839430.9698689</v>
+      </c>
+      <c r="L15">
+        <v>392865.6101648219</v>
+      </c>
+      <c r="M15">
+        <v>1448068.281180765</v>
+      </c>
+      <c r="N15">
+        <v>16285203.05489251</v>
+      </c>
+      <c r="O15">
+        <v>13585008.49200085</v>
+      </c>
+      <c r="P15">
+        <f>O15-0.1*N15</f>
+        <v>11956488.186511599</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="4">
+        <f>0.0000000091*15/0.000001</f>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="T15">
+        <v>124884999.57886539</v>
+      </c>
+      <c r="U15">
+        <v>260454.69254665679</v>
+      </c>
+      <c r="V15">
+        <v>650669.06810109154</v>
+      </c>
+      <c r="W15">
+        <v>15471984.689092111</v>
+      </c>
+      <c r="X15">
+        <v>12206096.30309541</v>
+      </c>
+      <c r="Y15">
+        <f>X15-0.1*W15</f>
+        <v>10658897.834186198</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>122040816.64414831</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>245106.2026059856</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>840643.64793153678</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>15570791.38196047</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>12903431.32376256</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>11346352.185566513</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>130525130.2219138</v>
+      </c>
+      <c r="L16">
+        <v>300211.20812727459</v>
+      </c>
+      <c r="M16">
+        <v>1696378.998010783</v>
+      </c>
+      <c r="N16">
+        <v>16368221.286261279</v>
+      </c>
+      <c r="O16">
+        <v>13519583.027904641</v>
+      </c>
+      <c r="P16">
+        <f>O16-0.1*N16</f>
+        <v>11882760.899278512</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="4">
+        <f>0.0000000091*15/0.000001</f>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="T16">
+        <v>123839430.9698689</v>
+      </c>
+      <c r="U16">
+        <v>392865.6101648219</v>
+      </c>
+      <c r="V16">
+        <v>1448068.281180765</v>
+      </c>
+      <c r="W16">
+        <v>16285203.05489251</v>
+      </c>
+      <c r="X16">
+        <v>13585008.49200085</v>
+      </c>
+      <c r="Y16">
+        <f>X16-0.1*W16</f>
+        <v>11956488.186511599</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>124884999.57886539</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>260454.69254665679</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>650669.06810109154</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>15471984.689092111</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>12206096.30309541</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>10658897.834186198</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>130262217.033169</v>
+      </c>
+      <c r="L17">
+        <v>312411.66914223973</v>
+      </c>
+      <c r="M17">
+        <v>1892970.0457810829</v>
+      </c>
+      <c r="N17">
+        <v>16556193.383649269</v>
+      </c>
+      <c r="O17">
+        <v>13138063.60631272</v>
+      </c>
+      <c r="P17">
+        <f>O17-0.1*N17</f>
+        <v>11482444.267947793</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="4">
+        <f>0.0000000096*15/0.000001</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="T17">
+        <v>130525130.2219138</v>
+      </c>
+      <c r="U17">
+        <v>300211.20812727459</v>
+      </c>
+      <c r="V17">
+        <v>1696378.998010783</v>
+      </c>
+      <c r="W17">
+        <v>16368221.286261279</v>
+      </c>
+      <c r="X17">
+        <v>13519583.027904641</v>
+      </c>
+      <c r="Y17">
+        <f>X17-0.1*W17</f>
+        <v>11882760.899278512</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>130525130.2219138</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>300211.20812727459</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1696378.998010783</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>16368221.286261279</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>13519583.027904641</v>
+      </c>
+      <c r="G18">
+        <f>F18-0.1*E18</f>
+        <v>11882760.899278512</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>122436829.073636</v>
+      </c>
+      <c r="L18">
+        <v>404390.90862093109</v>
+      </c>
+      <c r="M18">
+        <v>4105228.491097312</v>
+      </c>
+      <c r="N18">
+        <v>16213893.115659161</v>
+      </c>
+      <c r="O18">
+        <v>13434788.10757477</v>
+      </c>
+      <c r="P18">
+        <f>O18-0.1*N18</f>
+        <v>11813398.796008855</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="4">
+        <f>0.0000000104*15/0.000001</f>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="T18">
+        <v>122436829.073636</v>
+      </c>
+      <c r="U18">
+        <v>404390.90862093109</v>
+      </c>
+      <c r="V18">
+        <v>4105228.491097312</v>
+      </c>
+      <c r="W18">
+        <v>16213893.115659161</v>
+      </c>
+      <c r="X18">
+        <v>13434788.10757477</v>
+      </c>
+      <c r="Y18">
+        <f>X18-0.1*W18</f>
+        <v>11813398.796008855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>O23-0.1*N23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>99432864.009671569</v>
+      </c>
+      <c r="L24">
+        <v>517946.88487675373</v>
+      </c>
+      <c r="M24">
+        <v>67958.385117785278</v>
+      </c>
+      <c r="N24">
+        <v>7559296.9380351491</v>
+      </c>
+      <c r="O24">
+        <v>5077998.7396892207</v>
+      </c>
+      <c r="P24">
+        <f>O24-0.1*N24</f>
+        <v>4322069.0458857054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>103458599.3286628</v>
+      </c>
+      <c r="L25">
+        <v>565537.54982437752</v>
+      </c>
+      <c r="M25">
+        <v>55055.759844068518</v>
+      </c>
+      <c r="N25">
+        <v>11301261.36477978</v>
+      </c>
+      <c r="O25">
+        <v>8063029.9839975797</v>
+      </c>
+      <c r="P25">
+        <f>O25-0.1*N25</f>
+        <v>6932903.8475196017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>98869495.510615051</v>
+      </c>
+      <c r="L26">
+        <v>654221.00240573718</v>
+      </c>
+      <c r="M26">
+        <v>87225.607847375606</v>
+      </c>
+      <c r="N26">
+        <v>11520319.95079422</v>
+      </c>
+      <c r="O26">
+        <v>7971459.8616463887</v>
+      </c>
+      <c r="P26">
+        <f>O26-0.1*N26</f>
+        <v>6819427.8665669663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <v>120815990.679148</v>
+      </c>
+      <c r="L27">
+        <v>591018.47094773385</v>
+      </c>
+      <c r="M27">
+        <v>140340.54032033519</v>
+      </c>
+      <c r="N27">
+        <v>14224533.155842571</v>
+      </c>
+      <c r="O27">
+        <v>10600218.147781439</v>
+      </c>
+      <c r="P27">
+        <f>O27-0.1*N27</f>
+        <v>9177764.8321971819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>128348734.352567</v>
+      </c>
+      <c r="L28">
+        <v>262250.73529387353</v>
+      </c>
+      <c r="M28">
+        <v>461113.96727538551</v>
+      </c>
+      <c r="N28">
+        <v>14597034.154766429</v>
+      </c>
+      <c r="O28">
+        <v>12280105.25103936</v>
+      </c>
+      <c r="P28">
+        <f>O28-0.1*N28</f>
+        <v>10820401.835562717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>117327332.74382479</v>
+      </c>
+      <c r="L29">
+        <v>572378.11425006855</v>
+      </c>
+      <c r="M29">
+        <v>181001.7859671152</v>
+      </c>
+      <c r="N29">
+        <v>14824370.35927413</v>
+      </c>
+      <c r="O29">
+        <v>10838513.314139459</v>
+      </c>
+      <c r="P29">
+        <f>O29-0.1*N29</f>
+        <v>9356076.2782120463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>124884999.57886539</v>
+      </c>
+      <c r="L30">
+        <v>260454.69254665679</v>
+      </c>
+      <c r="M30">
+        <v>650669.06810109154</v>
+      </c>
+      <c r="N30">
+        <v>15471984.689092111</v>
+      </c>
+      <c r="O30">
+        <v>12206096.30309541</v>
+      </c>
+      <c r="P30">
+        <f>O30-0.1*N30</f>
+        <v>10658897.834186198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>127940382.8097512</v>
+      </c>
+      <c r="L31">
+        <v>446974.53440215928</v>
+      </c>
+      <c r="M31">
+        <v>232070.0411140699</v>
+      </c>
+      <c r="N31">
+        <v>15542286.01875807</v>
+      </c>
+      <c r="O31">
+        <v>11977008.39862336</v>
+      </c>
+      <c r="P31">
+        <f>O31-0.1*N31</f>
+        <v>10422779.796747554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>122040816.64414831</v>
+      </c>
+      <c r="L32">
+        <v>245106.2026059856</v>
+      </c>
+      <c r="M32">
+        <v>840643.64793153678</v>
+      </c>
+      <c r="N32">
+        <v>15570791.38196047</v>
+      </c>
+      <c r="O32">
+        <v>12903431.32376256</v>
+      </c>
+      <c r="P32">
+        <f>O32-0.1*N32</f>
+        <v>11346352.185566513</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>122436829.073636</v>
+      </c>
+      <c r="L33">
+        <v>404390.90862093109</v>
+      </c>
+      <c r="M33">
+        <v>4105228.491097312</v>
+      </c>
+      <c r="N33">
+        <v>16213893.115659161</v>
+      </c>
+      <c r="O33">
+        <v>13434788.10757477</v>
+      </c>
+      <c r="P33">
+        <f>O33-0.1*N33</f>
+        <v>11813398.796008855</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>123839430.9698689</v>
+      </c>
+      <c r="L34">
+        <v>392865.6101648219</v>
+      </c>
+      <c r="M34">
+        <v>1448068.281180765</v>
+      </c>
+      <c r="N34">
+        <v>16285203.05489251</v>
+      </c>
+      <c r="O34">
+        <v>13585008.49200085</v>
+      </c>
+      <c r="P34">
+        <f>O34-0.1*N34</f>
+        <v>11956488.186511599</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>130525130.2219138</v>
+      </c>
+      <c r="L35">
+        <v>300211.20812727459</v>
+      </c>
+      <c r="M35">
+        <v>1696378.998010783</v>
+      </c>
+      <c r="N35">
+        <v>16368221.286261279</v>
+      </c>
+      <c r="O35">
+        <v>13519583.027904641</v>
+      </c>
+      <c r="P35">
+        <f>O35-0.1*N35</f>
+        <v>11882760.899278512</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>130262217.033169</v>
+      </c>
+      <c r="L36">
+        <v>312411.66914223973</v>
+      </c>
+      <c r="M36">
+        <v>1892970.0457810829</v>
+      </c>
+      <c r="N36">
+        <v>16556193.383649269</v>
+      </c>
+      <c r="O36">
+        <v>13138063.60631272</v>
+      </c>
+      <c r="P36">
+        <f>O36-0.1*N36</f>
+        <v>11482444.267947793</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>131997818.9242533</v>
+      </c>
+      <c r="L37">
+        <v>400388.26114624058</v>
+      </c>
+      <c r="M37">
+        <v>524824.01456225361</v>
+      </c>
+      <c r="N37">
+        <v>16787424.834395532</v>
+      </c>
+      <c r="O37">
+        <v>13387017.792110629</v>
+      </c>
+      <c r="P37">
+        <f>O37-0.1*N37</f>
+        <v>11708275.308671076</v>
+      </c>
+    </row>
+    <row r="38" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <v>115699576.69012859</v>
+      </c>
+      <c r="L38">
+        <v>454232.97113804898</v>
+      </c>
+      <c r="M38">
+        <v>414761.87087287352</v>
+      </c>
+      <c r="N38">
+        <v>17303903.134900901</v>
+      </c>
+      <c r="O38">
+        <v>12872728.71279531</v>
+      </c>
+      <c r="P38">
+        <f>O38-0.1*N38</f>
+        <v>11142338.399305219</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J22:P38" xr:uid="{7F8EDABE-C88B-4A4D-BFC8-C6D4C8970A80}">
+    <sortState ref="J23:P38">
+      <sortCondition ref="N22:N38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HOAc work/Ni(110)/Acetic Acid Area_output 5_16_18.xlsx
+++ b/HOAc work/Ni(110)/Acetic Acid Area_output 5_16_18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DC887-A945-4862-8014-B02A3E4CBB65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331CC21F-B7DA-4331-B090-4C27D3AACFB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2</c15:sqref>
@@ -872,7 +872,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$3:$I$18</c15:sqref>
@@ -935,7 +935,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$3:$L$18</c15:sqref>
@@ -997,7 +997,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-73A4-4DD5-B69E-ED66D9286026}"/>
                   </c:ext>
@@ -1396,6 +1396,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="489857328"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2078,7 +2079,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$2</c15:sqref>
@@ -2119,7 +2120,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$S$3:$S$18</c15:sqref>
@@ -2182,7 +2183,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$U$3:$U$18</c15:sqref>
@@ -2244,7 +2245,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2603-488E-831D-631D312D14D6}"/>
                   </c:ext>
@@ -2643,6 +2644,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="489856464"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3324,7 +3326,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$22</c15:sqref>
@@ -3365,7 +3367,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$23:$I$38</c15:sqref>
@@ -3428,7 +3430,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$23:$L$38</c15:sqref>
@@ -3490,7 +3492,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-9B82-4180-B01F-D32B4BDA539B}"/>
                   </c:ext>
@@ -3857,6 +3859,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="489872016"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5650,16 +5653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552796</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>120535</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>253538</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>145472</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>187037</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>511232</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29095</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5687,15 +5690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1404850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>1172094</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>448887</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>12469</xdr:rowOff>
+      <xdr:colOff>216131</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>29094</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6046,8 +6049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6181,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f>O3-0.1*N3</f>
+        <f t="shared" ref="P3:P18" si="0">O3-0.1*N3</f>
         <v>0</v>
       </c>
       <c r="R3">
@@ -6206,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>X3-0.1*W3</f>
+        <f t="shared" ref="Y3:Y18" si="1">X3-0.1*W3</f>
         <v>0</v>
       </c>
     </row>
@@ -6230,7 +6233,7 @@
         <v>5077998.7396892207</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G17" si="0">F4-0.1*E4</f>
+        <f t="shared" ref="G4:G17" si="2">F4-0.1*E4</f>
         <v>4322069.0458857054</v>
       </c>
       <c r="I4">
@@ -6255,7 +6258,7 @@
         <v>8063029.9839975797</v>
       </c>
       <c r="P4">
-        <f>O4-0.1*N4</f>
+        <f t="shared" si="0"/>
         <v>6932903.8475196017</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -6281,7 +6284,7 @@
         <v>5077998.7396892207</v>
       </c>
       <c r="Y4">
-        <f>X4-0.1*W4</f>
+        <f t="shared" si="1"/>
         <v>4322069.0458857054</v>
       </c>
     </row>
@@ -6305,7 +6308,7 @@
         <v>13585008.49200085</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11956488.186511599</v>
       </c>
       <c r="I5">
@@ -6330,7 +6333,7 @@
         <v>5077998.7396892207</v>
       </c>
       <c r="P5">
-        <f>O5-0.1*N5</f>
+        <f t="shared" si="0"/>
         <v>4322069.0458857054</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -6356,7 +6359,7 @@
         <v>7971459.8616463887</v>
       </c>
       <c r="Y5">
-        <f>X5-0.1*W5</f>
+        <f t="shared" si="1"/>
         <v>6819427.8665669663</v>
       </c>
     </row>
@@ -6380,7 +6383,7 @@
         <v>13434788.10757477</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11813398.796008855</v>
       </c>
       <c r="I6">
@@ -6405,7 +6408,7 @@
         <v>7971459.8616463887</v>
       </c>
       <c r="P6">
-        <f>O6-0.1*N6</f>
+        <f t="shared" si="0"/>
         <v>6819427.8665669663</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -6431,7 +6434,7 @@
         <v>8063029.9839975797</v>
       </c>
       <c r="Y6">
-        <f>X6-0.1*W6</f>
+        <f t="shared" si="1"/>
         <v>6932903.8475196017</v>
       </c>
     </row>
@@ -6455,7 +6458,7 @@
         <v>7971459.8616463887</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6819427.8665669663</v>
       </c>
       <c r="I7">
@@ -6480,7 +6483,7 @@
         <v>10600218.147781439</v>
       </c>
       <c r="P7">
-        <f>O7-0.1*N7</f>
+        <f t="shared" si="0"/>
         <v>9177764.8321971819</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -6506,7 +6509,7 @@
         <v>10600218.147781439</v>
       </c>
       <c r="Y7">
-        <f>X7-0.1*W7</f>
+        <f t="shared" si="1"/>
         <v>9177764.8321971819</v>
       </c>
     </row>
@@ -6530,7 +6533,7 @@
         <v>8063029.9839975797</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6932903.8475196017</v>
       </c>
       <c r="I8">
@@ -6555,7 +6558,7 @@
         <v>10838513.314139459</v>
       </c>
       <c r="P8">
-        <f>O8-0.1*N8</f>
+        <f t="shared" si="0"/>
         <v>9356076.2782120463</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -6581,7 +6584,7 @@
         <v>10838513.314139459</v>
       </c>
       <c r="Y8">
-        <f>X8-0.1*W8</f>
+        <f t="shared" si="1"/>
         <v>9356076.2782120463</v>
       </c>
     </row>
@@ -6605,7 +6608,7 @@
         <v>10600218.147781439</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9177764.8321971819</v>
       </c>
       <c r="I9">
@@ -6630,7 +6633,7 @@
         <v>11977008.39862336</v>
       </c>
       <c r="P9">
-        <f>O9-0.1*N9</f>
+        <f t="shared" si="0"/>
         <v>10422779.796747554</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -6656,7 +6659,7 @@
         <v>12872728.71279531</v>
       </c>
       <c r="Y9">
-        <f>X9-0.1*W9</f>
+        <f t="shared" si="1"/>
         <v>11142338.399305219</v>
       </c>
     </row>
@@ -6680,7 +6683,7 @@
         <v>10838513.314139459</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9356076.2782120463</v>
       </c>
       <c r="I10">
@@ -6705,7 +6708,7 @@
         <v>12872728.71279531</v>
       </c>
       <c r="P10">
-        <f>O10-0.1*N10</f>
+        <f t="shared" si="0"/>
         <v>11142338.399305219</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -6731,7 +6734,7 @@
         <v>11977008.39862336</v>
       </c>
       <c r="Y10">
-        <f>X10-0.1*W10</f>
+        <f t="shared" si="1"/>
         <v>10422779.796747554</v>
       </c>
     </row>
@@ -6755,7 +6758,7 @@
         <v>12872728.71279531</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11142338.399305219</v>
       </c>
       <c r="I11">
@@ -6780,7 +6783,7 @@
         <v>12280105.25103936</v>
       </c>
       <c r="P11">
-        <f>O11-0.1*N11</f>
+        <f t="shared" si="0"/>
         <v>10820401.835562717</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -6806,7 +6809,7 @@
         <v>13387017.792110629</v>
       </c>
       <c r="Y11">
-        <f>X11-0.1*W11</f>
+        <f t="shared" si="1"/>
         <v>11708275.308671076</v>
       </c>
     </row>
@@ -6830,7 +6833,7 @@
         <v>11977008.39862336</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10422779.796747554</v>
       </c>
       <c r="I12">
@@ -6855,7 +6858,7 @@
         <v>13387017.792110629</v>
       </c>
       <c r="P12">
-        <f>O12-0.1*N12</f>
+        <f t="shared" si="0"/>
         <v>11708275.308671076</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -6881,7 +6884,7 @@
         <v>12280105.25103936</v>
       </c>
       <c r="Y12">
-        <f>X12-0.1*W12</f>
+        <f t="shared" si="1"/>
         <v>10820401.835562717</v>
       </c>
     </row>
@@ -6905,7 +6908,7 @@
         <v>13387017.792110629</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11708275.308671076</v>
       </c>
       <c r="I13">
@@ -6930,7 +6933,7 @@
         <v>12206096.30309541</v>
       </c>
       <c r="P13">
-        <f>O13-0.1*N13</f>
+        <f t="shared" si="0"/>
         <v>10658897.834186198</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -6956,7 +6959,7 @@
         <v>13138063.60631272</v>
       </c>
       <c r="Y13">
-        <f>X13-0.1*W13</f>
+        <f t="shared" si="1"/>
         <v>11482444.267947793</v>
       </c>
     </row>
@@ -6980,7 +6983,7 @@
         <v>12280105.25103936</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10820401.835562717</v>
       </c>
       <c r="I14">
@@ -7005,7 +7008,7 @@
         <v>12903431.32376256</v>
       </c>
       <c r="P14">
-        <f>O14-0.1*N14</f>
+        <f t="shared" si="0"/>
         <v>11346352.185566513</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -7031,7 +7034,7 @@
         <v>12903431.32376256</v>
       </c>
       <c r="Y14">
-        <f>X14-0.1*W14</f>
+        <f t="shared" si="1"/>
         <v>11346352.185566513</v>
       </c>
     </row>
@@ -7055,7 +7058,7 @@
         <v>13138063.60631272</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11482444.267947793</v>
       </c>
       <c r="I15">
@@ -7080,7 +7083,7 @@
         <v>13585008.49200085</v>
       </c>
       <c r="P15">
-        <f>O15-0.1*N15</f>
+        <f t="shared" si="0"/>
         <v>11956488.186511599</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -7106,7 +7109,7 @@
         <v>12206096.30309541</v>
       </c>
       <c r="Y15">
-        <f>X15-0.1*W15</f>
+        <f t="shared" si="1"/>
         <v>10658897.834186198</v>
       </c>
     </row>
@@ -7130,7 +7133,7 @@
         <v>12903431.32376256</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11346352.185566513</v>
       </c>
       <c r="I16">
@@ -7155,7 +7158,7 @@
         <v>13519583.027904641</v>
       </c>
       <c r="P16">
-        <f>O16-0.1*N16</f>
+        <f t="shared" si="0"/>
         <v>11882760.899278512</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -7181,7 +7184,7 @@
         <v>13585008.49200085</v>
       </c>
       <c r="Y16">
-        <f>X16-0.1*W16</f>
+        <f t="shared" si="1"/>
         <v>11956488.186511599</v>
       </c>
     </row>
@@ -7205,7 +7208,7 @@
         <v>12206096.30309541</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10658897.834186198</v>
       </c>
       <c r="I17">
@@ -7230,7 +7233,7 @@
         <v>13138063.60631272</v>
       </c>
       <c r="P17">
-        <f>O17-0.1*N17</f>
+        <f t="shared" si="0"/>
         <v>11482444.267947793</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -7256,7 +7259,7 @@
         <v>13519583.027904641</v>
       </c>
       <c r="Y17">
-        <f>X17-0.1*W17</f>
+        <f t="shared" si="1"/>
         <v>11882760.899278512</v>
       </c>
     </row>
@@ -7305,7 +7308,7 @@
         <v>13434788.10757477</v>
       </c>
       <c r="P18">
-        <f>O18-0.1*N18</f>
+        <f t="shared" si="0"/>
         <v>11813398.796008855</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -7331,7 +7334,7 @@
         <v>13434788.10757477</v>
       </c>
       <c r="Y18">
-        <f>X18-0.1*W18</f>
+        <f t="shared" si="1"/>
         <v>11813398.796008855</v>
       </c>
     </row>
@@ -7386,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <f>O23-0.1*N23</f>
+        <f t="shared" ref="P23:P38" si="3">O23-0.1*N23</f>
         <v>0</v>
       </c>
     </row>
@@ -7413,7 +7416,7 @@
         <v>5077998.7396892207</v>
       </c>
       <c r="P24">
-        <f>O24-0.1*N24</f>
+        <f t="shared" si="3"/>
         <v>4322069.0458857054</v>
       </c>
     </row>
@@ -7440,7 +7443,7 @@
         <v>8063029.9839975797</v>
       </c>
       <c r="P25">
-        <f>O25-0.1*N25</f>
+        <f t="shared" si="3"/>
         <v>6932903.8475196017</v>
       </c>
     </row>
@@ -7467,7 +7470,7 @@
         <v>7971459.8616463887</v>
       </c>
       <c r="P26">
-        <f>O26-0.1*N26</f>
+        <f t="shared" si="3"/>
         <v>6819427.8665669663</v>
       </c>
     </row>
@@ -7494,7 +7497,7 @@
         <v>10600218.147781439</v>
       </c>
       <c r="P27">
-        <f>O27-0.1*N27</f>
+        <f t="shared" si="3"/>
         <v>9177764.8321971819</v>
       </c>
     </row>
@@ -7521,7 +7524,7 @@
         <v>12280105.25103936</v>
       </c>
       <c r="P28">
-        <f>O28-0.1*N28</f>
+        <f t="shared" si="3"/>
         <v>10820401.835562717</v>
       </c>
     </row>
@@ -7548,7 +7551,7 @@
         <v>10838513.314139459</v>
       </c>
       <c r="P29">
-        <f>O29-0.1*N29</f>
+        <f t="shared" si="3"/>
         <v>9356076.2782120463</v>
       </c>
     </row>
@@ -7575,7 +7578,7 @@
         <v>12206096.30309541</v>
       </c>
       <c r="P30">
-        <f>O30-0.1*N30</f>
+        <f t="shared" si="3"/>
         <v>10658897.834186198</v>
       </c>
     </row>
@@ -7602,7 +7605,7 @@
         <v>11977008.39862336</v>
       </c>
       <c r="P31">
-        <f>O31-0.1*N31</f>
+        <f t="shared" si="3"/>
         <v>10422779.796747554</v>
       </c>
     </row>
@@ -7629,7 +7632,7 @@
         <v>12903431.32376256</v>
       </c>
       <c r="P32">
-        <f>O32-0.1*N32</f>
+        <f t="shared" si="3"/>
         <v>11346352.185566513</v>
       </c>
     </row>
@@ -7656,7 +7659,7 @@
         <v>13434788.10757477</v>
       </c>
       <c r="P33">
-        <f>O33-0.1*N33</f>
+        <f t="shared" si="3"/>
         <v>11813398.796008855</v>
       </c>
     </row>
@@ -7683,7 +7686,7 @@
         <v>13585008.49200085</v>
       </c>
       <c r="P34">
-        <f>O34-0.1*N34</f>
+        <f t="shared" si="3"/>
         <v>11956488.186511599</v>
       </c>
     </row>
@@ -7710,7 +7713,7 @@
         <v>13519583.027904641</v>
       </c>
       <c r="P35">
-        <f>O35-0.1*N35</f>
+        <f t="shared" si="3"/>
         <v>11882760.899278512</v>
       </c>
     </row>
@@ -7737,7 +7740,7 @@
         <v>13138063.60631272</v>
       </c>
       <c r="P36">
-        <f>O36-0.1*N36</f>
+        <f t="shared" si="3"/>
         <v>11482444.267947793</v>
       </c>
     </row>
@@ -7764,7 +7767,7 @@
         <v>13387017.792110629</v>
       </c>
       <c r="P37">
-        <f>O37-0.1*N37</f>
+        <f t="shared" si="3"/>
         <v>11708275.308671076</v>
       </c>
     </row>
@@ -7791,7 +7794,7 @@
         <v>12872728.71279531</v>
       </c>
       <c r="P38">
-        <f>O38-0.1*N38</f>
+        <f t="shared" si="3"/>
         <v>11142338.399305219</v>
       </c>
     </row>

--- a/HOAc work/Ni(110)/Acetic Acid Area_output 5_16_18.xlsx
+++ b/HOAc work/Ni(110)/Acetic Acid Area_output 5_16_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331CC21F-B7DA-4331-B090-4C27D3AACFB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835DCE52-589C-4EFE-84C8-DA1E81025D7F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="27">
   <si>
     <t>H2</t>
   </si>
@@ -99,6 +99,12 @@
   <si>
     <t>CO2 smallest to largest</t>
   </si>
+  <si>
+    <t>hoac coverage from madix paper</t>
+  </si>
+  <si>
+    <t>HOAc ML for low coverage IRAS</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,6 +196,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,7 +1577,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$2</c:f>
+              <c:f>Sheet1!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1604,7 +1612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$18</c:f>
+              <c:f>Sheet1!$T$3:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1661,7 +1669,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$3:$W$18</c:f>
+              <c:f>Sheet1!$X$3:$X$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1728,7 +1736,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$2</c:f>
+              <c:f>Sheet1!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1763,7 +1771,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$18</c:f>
+              <c:f>Sheet1!$T$3:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1820,7 +1828,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$18</c:f>
+              <c:f>Sheet1!$Z$3:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1903,7 +1911,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$2</c15:sqref>
+                          <c15:sqref>Sheet1!$U$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1944,7 +1952,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$3:$S$18</c15:sqref>
+                          <c15:sqref>Sheet1!$T$3:$T$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2007,7 +2015,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$3:$T$18</c15:sqref>
+                          <c15:sqref>Sheet1!$U$3:$U$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2082,7 +2090,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$U$2</c15:sqref>
+                          <c15:sqref>Sheet1!$V$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2123,7 +2131,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$3:$S$18</c15:sqref>
+                          <c15:sqref>Sheet1!$T$3:$T$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2186,7 +2194,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$U$3:$U$18</c15:sqref>
+                          <c15:sqref>Sheet1!$V$3:$V$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2263,7 +2271,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$2</c:f>
+              <c:f>Sheet1!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2298,7 +2306,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$18</c:f>
+              <c:f>Sheet1!$T$3:$T$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2355,7 +2363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$V$3:$V$18</c:f>
+              <c:f>Sheet1!$W$3:$W$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5617,16 +5625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>656704</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128845</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>869140</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1080653</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>397162</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>4154</xdr:rowOff>
+      <xdr:rowOff>188882</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5653,16 +5661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>253538</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>225829</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>153786</xdr:rowOff>
+      <xdr:rowOff>89131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>511232</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>29095</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>483522</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>158403</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5689,16 +5697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1172094</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153785</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266931</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>216131</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>29094</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>530168</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6047,10 +6055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6059,19 +6067,19 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -6114,32 +6122,32 @@
       <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="S2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6187,9 +6195,6 @@
         <f t="shared" ref="P3:P18" si="0">O3-0.1*N3</f>
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
@@ -6209,11 +6214,14 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y18" si="1">X3-0.1*W3</f>
         <v>0</v>
       </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z18" si="1">Y3-0.1*X3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6261,34 +6269,34 @@
         <f t="shared" si="0"/>
         <v>6932903.8475196017</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f>0.000000001*15/0.000001</f>
         <v>1.5000000000000003E-2</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>99432864.009671569</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>517946.88487675373</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>67958.385117785278</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>7559296.9380351491</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5077998.7396892207</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f t="shared" si="1"/>
         <v>4322069.0458857054</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6336,34 +6344,34 @@
         <f t="shared" si="0"/>
         <v>4322069.0458857054</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f>0.0000000015*15/0.000001</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>98869495.510615051</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>654221.00240573718</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>87225.607847375606</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>11520319.95079422</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>7971459.8616463887</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="1"/>
         <v>6819427.8665669663</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -6411,34 +6419,34 @@
         <f t="shared" si="0"/>
         <v>6819427.8665669663</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f>0.0000000018*15/0.000001</f>
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>103458599.3286628</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>565537.54982437752</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>55055.759844068518</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>11301261.36477978</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>8063029.9839975797</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="1"/>
         <v>6932903.8475196017</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -6486,34 +6494,34 @@
         <f t="shared" si="0"/>
         <v>9177764.8321971819</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f>0.0000000025*15/0.000001</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>120815990.679148</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>591018.47094773385</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>140340.54032033519</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>14224533.155842571</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>10600218.147781439</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="1"/>
         <v>9177764.8321971819</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -6561,34 +6569,34 @@
         <f t="shared" si="0"/>
         <v>9356076.2782120463</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <f>0.0000000032*15/0.000001</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>117327332.74382479</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>572378.11425006855</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>181001.7859671152</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>14824370.35927413</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>10838513.314139459</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="1"/>
         <v>9356076.2782120463</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -6636,34 +6644,34 @@
         <f t="shared" si="0"/>
         <v>10422779.796747554</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f>0.0000000035*15/0.000001</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>115699576.69012859</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>454232.97113804898</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>414761.87087287352</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>17303903.134900901</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>12872728.71279531</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="1"/>
         <v>11142338.399305219</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6711,34 +6719,34 @@
         <f t="shared" si="0"/>
         <v>11142338.399305219</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <f>0.0000000036*15/0.000001</f>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>127940382.8097512</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>446974.53440215928</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>232070.0411140699</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>15542286.01875807</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>11977008.39862336</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="1"/>
         <v>10422779.796747554</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -6786,34 +6794,34 @@
         <f t="shared" si="0"/>
         <v>10820401.835562717</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f>0.0000000049*15/0.000001</f>
         <v>7.350000000000001E-2</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>131997818.9242533</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>400388.26114624058</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>524824.01456225361</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>16787424.834395532</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>13387017.792110629</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="1"/>
         <v>11708275.308671076</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6861,34 +6869,34 @@
         <f t="shared" si="0"/>
         <v>11708275.308671076</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <f>0.0000000063*15/0.000001</f>
         <v>9.4500000000000015E-2</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>128348734.352567</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>262250.73529387353</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>461113.96727538551</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>14597034.154766429</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>12280105.25103936</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="1"/>
         <v>10820401.835562717</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -6936,34 +6944,34 @@
         <f t="shared" si="0"/>
         <v>10658897.834186198</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="4">
+      <c r="T13" s="4">
         <f>0.0000000076*15/0.000001</f>
         <v>0.114</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>130262217.033169</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>312411.66914223973</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1892970.0457810829</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>16556193.383649269</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>13138063.60631272</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f t="shared" si="1"/>
         <v>11482444.267947793</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7011,34 +7019,34 @@
         <f t="shared" si="0"/>
         <v>11346352.185566513</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="4">
+      <c r="T14" s="4">
         <f>0.0000000084*15/0.000001</f>
         <v>0.12600000000000003</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>122040816.64414831</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>245106.2026059856</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>840643.64793153678</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>15570791.38196047</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>12903431.32376256</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f t="shared" si="1"/>
         <v>11346352.185566513</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -7086,34 +7094,34 @@
         <f t="shared" si="0"/>
         <v>11956488.186511599</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="4">
+      <c r="T15" s="4">
         <f>0.0000000091*15/0.000001</f>
         <v>0.13650000000000001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>124884999.57886539</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>260454.69254665679</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>650669.06810109154</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>15471984.689092111</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>12206096.30309541</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <f t="shared" si="1"/>
         <v>10658897.834186198</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -7161,34 +7169,34 @@
         <f t="shared" si="0"/>
         <v>11882760.899278512</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="4">
+      <c r="T16" s="4">
         <f>0.0000000091*15/0.000001</f>
         <v>0.13650000000000001</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>123839430.9698689</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>392865.6101648219</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1448068.281180765</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>16285203.05489251</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>13585008.49200085</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f t="shared" si="1"/>
         <v>11956488.186511599</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -7236,34 +7244,34 @@
         <f t="shared" si="0"/>
         <v>11482444.267947793</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="4">
+      <c r="T17" s="4">
         <f>0.0000000096*15/0.000001</f>
         <v>0.14399999999999999</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>130525130.2219138</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>300211.20812727459</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1696378.998010783</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>16368221.286261279</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>13519583.027904641</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <f t="shared" si="1"/>
         <v>11882760.899278512</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -7311,39 +7319,48 @@
         <f t="shared" si="0"/>
         <v>11813398.796008855</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="4">
+      <c r="T18" s="4">
         <f>0.0000000104*15/0.000001</f>
         <v>0.15600000000000003</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>122436829.073636</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>404390.90862093109</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4105228.491097312</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>16213893.115659161</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>13434788.10757477</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <f t="shared" si="1"/>
         <v>11813398.796008855</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f>(M7-36200)/M9</f>
+        <v>0.44874616223792008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J22" s="1" t="s">
         <v>5</v>
       </c>
@@ -7366,7 +7383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>0</v>
       </c>
@@ -7393,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I24">
         <v>1</v>
       </c>
@@ -7420,7 +7437,7 @@
         <v>4322069.0458857054</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>2</v>
       </c>
@@ -7447,7 +7464,7 @@
         <v>6932903.8475196017</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I26">
         <v>3</v>
       </c>
@@ -7474,7 +7491,7 @@
         <v>6819427.8665669663</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I27">
         <v>4</v>
       </c>
@@ -7501,7 +7518,7 @@
         <v>9177764.8321971819</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I28">
         <v>5</v>
       </c>
@@ -7528,7 +7545,7 @@
         <v>10820401.835562717</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>6</v>
       </c>
@@ -7555,7 +7572,7 @@
         <v>9356076.2782120463</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I30">
         <v>7</v>
       </c>
@@ -7582,7 +7599,7 @@
         <v>10658897.834186198</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I31">
         <v>8</v>
       </c>
@@ -7609,7 +7626,7 @@
         <v>10422779.796747554</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I32">
         <v>9</v>
       </c>
@@ -7636,7 +7653,7 @@
         <v>11346352.185566513</v>
       </c>
     </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I33">
         <v>10</v>
       </c>
@@ -7663,7 +7680,7 @@
         <v>11813398.796008855</v>
       </c>
     </row>
-    <row r="34" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I34">
         <v>11</v>
       </c>
@@ -7690,7 +7707,7 @@
         <v>11956488.186511599</v>
       </c>
     </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>12</v>
       </c>
@@ -7717,7 +7734,7 @@
         <v>11882760.899278512</v>
       </c>
     </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>13</v>
       </c>
@@ -7744,7 +7761,7 @@
         <v>11482444.267947793</v>
       </c>
     </row>
-    <row r="37" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I37">
         <v>14</v>
       </c>
@@ -7771,7 +7788,7 @@
         <v>11708275.308671076</v>
       </c>
     </row>
-    <row r="38" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.3">
       <c r="I38">
         <v>15</v>
       </c>
@@ -7796,6 +7813,555 @@
       <c r="P38">
         <f t="shared" si="3"/>
         <v>11142338.399305219</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <f>200000000000000/1140000000000000</f>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="J42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f>(K23-MIN(K$23:K$38))/(MAX(K$23:K$38)-MIN(K$23:K$38))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" ref="L43:P43" si="4">(L23-MIN(L$23:L$38))/(MAX(L$23:L$38)-MIN(L$23:L$38))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <f>(M23-MIN(M$23:M$38))/($M$31-MIN(M$23:M$38))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" ref="K44:P58" si="5">(K24-MIN(K$23:K$38))/(MAX(K$23:K$38)-MIN(K$23:K$38))</f>
+        <v>0.75329171966645092</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="5"/>
+        <v>0.79170017925461145</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" ref="M44:M58" si="6">(M24-MIN(M$23:M$38))/($M$31-MIN(M$23:M$38))</f>
+        <v>0.29283566629947527</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" si="5"/>
+        <v>0.43685501930420051</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="5"/>
+        <v>0.3737942999946785</v>
+      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="5"/>
+        <v>0.36148315278407045</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="5"/>
+        <v>0.78379021844317232</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="5"/>
+        <v>0.86444419812991635</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="6"/>
+        <v>0.23723768729375472</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="5"/>
+        <v>0.6531047519554033</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="5"/>
+        <v>0.59352410333385275</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="5"/>
+        <v>0.57984449441774866</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="5"/>
+        <v>0.74902370597010492</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <f t="shared" si="6"/>
+        <v>0.37585897528454099</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="5"/>
+        <v>0.66576424180036287</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="5"/>
+        <v>0.58678357590576102</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="5"/>
+        <v>0.57035374937769157</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="5"/>
+        <v>0.91528778023580859</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90339268958717078</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="6"/>
+        <v>0.60473355219234559</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="5"/>
+        <v>0.82204188528728916</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="5"/>
+        <v>0.78028792944981074</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="5"/>
+        <v>0.76759703092006892</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97235496312419889</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="5"/>
+        <v>0.40085954796545942</v>
+      </c>
+      <c r="M48" s="7">
+        <f t="shared" si="6"/>
+        <v>1.9869603377573977</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="5"/>
+        <v>0.84356887812929993</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90394534963081941</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90498160218729373</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.88885811674776882</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.87490024341207107</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="6"/>
+        <v>0.77994464558286947</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.85670673510500028</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.79782896864005737</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="5"/>
+        <v>0.78251039370965636</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94611411458647221</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="5"/>
+        <v>0.39811423294100706</v>
+      </c>
+      <c r="M50" s="7">
+        <f t="shared" si="6"/>
+        <v>2.8037615927394381</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" si="5"/>
+        <v>0.89413264559289374</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="5"/>
+        <v>0.89849750997819589</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" si="5"/>
+        <v>0.8914739568940282</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.96926133971326867</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.68321642496728185</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.89819538965230572</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.88163422243539158</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.87172584743618464</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="5"/>
+        <v>0.92456691814113379</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="5"/>
+        <v>0.37465352182927131</v>
+      </c>
+      <c r="M52" s="7">
+        <f t="shared" si="6"/>
+        <v>3.6223704011770024</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="5"/>
+        <v>0.89984272684439315</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94982872711197663</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94897030035680585</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.92756706187619764</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.61812584300088624</v>
+      </c>
+      <c r="M53" s="7">
+        <f t="shared" si="6"/>
+        <v>17.689609875492113</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.93700785246287821</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98894219429347185</v>
+      </c>
+      <c r="P53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98803249011995298</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="5"/>
+        <v>0.93819300939308647</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="5"/>
+        <v>0.60050901563868331</v>
+      </c>
+      <c r="M54" s="7">
+        <f t="shared" si="6"/>
+        <v>6.2397898247839443</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94112888450272603</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98884308305742086</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="5"/>
+        <v>0.45888347672013208</v>
+      </c>
+      <c r="M55" s="7">
+        <f t="shared" si="6"/>
+        <v>7.3097716097570649</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="5"/>
+        <v>0.9459265437777209</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="5"/>
+        <v>0.99518399534790625</v>
+      </c>
+      <c r="P55" s="6">
+        <f t="shared" si="5"/>
+        <v>0.9938337004910639</v>
+      </c>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>13</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98685128356491802</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="5"/>
+        <v>0.47753231399392942</v>
+      </c>
+      <c r="M56" s="7">
+        <f t="shared" si="6"/>
+        <v>8.1568910691519516</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="5"/>
+        <v>0.95678953208287743</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="5"/>
+        <v>0.96710013939621009</v>
+      </c>
+      <c r="P56" s="6">
+        <f t="shared" si="5"/>
+        <v>0.96035257918804406</v>
+      </c>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>14</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="5"/>
+        <v>0.61200765440716676</v>
+      </c>
+      <c r="M57" s="7">
+        <f t="shared" si="6"/>
+        <v>2.2614897297505356</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97015249701301987</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98542579491158933</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97924031923349053</v>
+      </c>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>15</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="5"/>
+        <v>0.87652642773228384</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="5"/>
+        <v>0.69431120289278192</v>
+      </c>
+      <c r="M58" s="7">
+        <f t="shared" si="6"/>
+        <v>1.7872271185103323</v>
+      </c>
+      <c r="N58" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="5"/>
+        <v>0.94756869091212226</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="5"/>
+        <v>0.93190728125965605</v>
       </c>
     </row>
   </sheetData>
@@ -7805,6 +8371,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>